--- a/biology/Zoologie/Adwaita/Adwaita.xlsx
+++ b/biology/Zoologie/Adwaita/Adwaita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adwaita (la non-duelle en sanskrit, en référence au védanta) (vers 1750 – 23 mars 2006) est le nom d'une tortue géante des Seychelles mâle offerte au jardin zoologique de Calcutta en Inde, célèbre pour sa longévité puisqu'elle aurait vécu plus de 250 ans.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Adwaita aurait été offert initialement par les marins qui l'ont capturé aux Seychelles comme animal de compagnie au major-général Robert Clive de la Compagnie anglaise des Indes orientales.
-Adwaita est transféré au zoo de Calcutta en 1875 par Carl Louis Schwendler, son fondateur, après le décès des trois autres tortues qui appartenaient à Robert Clive[1].
+Adwaita est transféré au zoo de Calcutta en 1875 par Carl Louis Schwendler, son fondateur, après le décès des trois autres tortues qui appartenaient à Robert Clive.
 D'un poids d'environ 250 kg, Adwaita a vécu dans son enclos au zoo de Calcutta jusqu'à sa mort en 2006.
 Sa longévité reste sujette à caution, son âge était évalué de 150 à plus de 250 ans.
 Certaines sources[Lesquelles ?] avancent une date de naissance vers 1750, d'autres mentionnent même une naissance en 1705.
